--- a/data/trans_orig/P36B08_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B08_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DED66003-1469-4A6A-9082-32B06BCA98BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE2E606D-E62D-4E3F-B223-BDD5F62B32E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BBBA8104-ED85-4D62-8E89-C22531CB58E0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99B5AE32-0430-4ABB-A53A-A15493A403C9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>64,19%</t>
   </si>
   <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
   </si>
   <si>
     <t>72,87%</t>
   </si>
   <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
   </si>
   <si>
     <t>69,06%</t>
   </si>
   <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>35,81%</t>
   </si>
   <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
   </si>
   <si>
     <t>27,13%</t>
   </si>
   <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
   </si>
   <si>
     <t>30,94%</t>
   </si>
   <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,49 @@
     <t>61,66%</t>
   </si>
   <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
   </si>
   <si>
     <t>69,68%</t>
   </si>
   <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
+    <t>71,94%</t>
   </si>
   <si>
     <t>65,54%</t>
   </si>
   <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
   </si>
   <si>
     <t>38,34%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
   </si>
   <si>
     <t>30,32%</t>
   </si>
   <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
+    <t>28,06%</t>
   </si>
   <si>
     <t>34,46%</t>
   </si>
   <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +191,109 @@
     <t>66,24%</t>
   </si>
   <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
   </si>
   <si>
     <t>70,89%</t>
   </si>
   <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
   </si>
   <si>
     <t>68,4%</t>
   </si>
   <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
   </si>
   <si>
     <t>33,76%</t>
   </si>
   <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
   </si>
   <si>
     <t>29,11%</t>
   </si>
   <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
   </si>
   <si>
     <t>31,6%</t>
   </si>
   <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
   </si>
   <si>
     <t>63,23%</t>
   </si>
   <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
   </si>
   <si>
     <t>71,09%</t>
   </si>
   <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
   </si>
   <si>
     <t>67,22%</t>
   </si>
   <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
   </si>
   <si>
     <t>36,77%</t>
   </si>
   <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
   </si>
   <si>
     <t>28,91%</t>
   </si>
   <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
   </si>
   <si>
     <t>32,78%</t>
   </si>
   <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,187 +305,178 @@
     <t>72,98%</t>
   </si>
   <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
   </si>
   <si>
     <t>80,64%</t>
   </si>
   <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>77,42%</t>
   </si>
   <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
   </si>
   <si>
     <t>27,02%</t>
   </si>
   <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
   </si>
   <si>
     <t>19,36%</t>
   </si>
   <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
   </si>
   <si>
     <t>22,58%</t>
   </si>
   <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
   </si>
   <si>
     <t>69,26%</t>
   </si>
   <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
   </si>
   <si>
     <t>77,31%</t>
   </si>
   <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
+    <t>79,38%</t>
   </si>
   <si>
     <t>73,06%</t>
   </si>
   <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
   </si>
   <si>
     <t>30,74%</t>
   </si>
   <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
   </si>
   <si>
     <t>22,69%</t>
   </si>
   <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
+    <t>20,62%</t>
   </si>
   <si>
     <t>26,94%</t>
   </si>
   <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
   </si>
   <si>
     <t>75,41%</t>
   </si>
   <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
   </si>
   <si>
     <t>85,01%</t>
   </si>
   <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
   </si>
   <si>
     <t>80,09%</t>
   </si>
   <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
   </si>
   <si>
     <t>24,59%</t>
   </si>
   <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
   </si>
   <si>
     <t>14,99%</t>
   </si>
   <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
   </si>
   <si>
     <t>19,91%</t>
   </si>
   <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
   </si>
   <si>
     <t>71,18%</t>
   </si>
   <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
   </si>
   <si>
     <t>79,56%</t>
   </si>
   <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
   </si>
   <si>
     <t>76,53%</t>
@@ -500,139 +485,136 @@
     <t>28,82%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
   </si>
   <si>
     <t>23,47%</t>
   </si>
   <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2015 (Tasa respuesta: 99,53%)</t>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
   </si>
   <si>
     <t>76,44%</t>
   </si>
   <si>
-    <t>79,32%</t>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
   </si>
   <si>
     <t>79,37%</t>
   </si>
   <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
   </si>
   <si>
     <t>78,1%</t>
   </si>
   <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
   </si>
   <si>
     <t>23,56%</t>
   </si>
   <si>
-    <t>20,68%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>20,63%</t>
   </si>
   <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
   </si>
   <si>
     <t>21,9%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
   </si>
   <si>
     <t>69,23%</t>
   </si>
   <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
+    <t>71,2%</t>
   </si>
   <si>
     <t>75,09%</t>
   </si>
   <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
   </si>
   <si>
     <t>72,1%</t>
   </si>
   <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
   </si>
   <si>
     <t>30,77%</t>
   </si>
   <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
+    <t>28,8%</t>
   </si>
   <si>
     <t>24,91%</t>
   </si>
   <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
   </si>
   <si>
     <t>27,9%</t>
   </si>
   <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
   </si>
   <si>
     <t>78,31%</t>
   </si>
   <si>
-    <t>74,64%</t>
+    <t>74,49%</t>
   </si>
   <si>
     <t>81,68%</t>
@@ -641,19 +623,19 @@
     <t>81,9%</t>
   </si>
   <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
   <si>
     <t>80,11%</t>
   </si>
   <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
   </si>
   <si>
     <t>21,69%</t>
@@ -662,79 +644,79 @@
     <t>18,32%</t>
   </si>
   <si>
-    <t>25,36%</t>
+    <t>25,51%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
   </si>
   <si>
     <t>19,89%</t>
   </si>
   <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
   </si>
   <si>
     <t>72,31%</t>
   </si>
   <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
   </si>
   <si>
     <t>77,36%</t>
   </si>
   <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
   </si>
   <si>
     <t>74,89%</t>
   </si>
   <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
   </si>
   <si>
     <t>27,69%</t>
   </si>
   <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
   </si>
   <si>
     <t>22,64%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>25,11%</t>
   </si>
   <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
   </si>
   <si>
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2023 (Tasa respuesta: 99,82%)</t>
@@ -1365,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD82F8BC-AB08-43EA-B61C-A5D39204A27D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2702E08A-B851-409A-9464-E97F16C0F730}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1641,7 +1623,7 @@
         <v>1010</v>
       </c>
       <c r="D7" s="7">
-        <v>1044187</v>
+        <v>1044188</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1662,10 +1644,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>2082</v>
@@ -1674,13 +1656,13 @@
         <v>2149688</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1695,13 +1677,13 @@
         <v>649225</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>481</v>
@@ -1710,13 +1692,13 @@
         <v>481113</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
         <v>1120</v>
@@ -1725,13 +1707,13 @@
         <v>1130338</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1743,7 +1725,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1787,7 +1769,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1799,13 +1781,13 @@
         <v>365235</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>318</v>
@@ -1814,13 +1796,13 @@
         <v>337748</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>664</v>
@@ -1829,13 +1811,13 @@
         <v>702983</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,13 +1832,13 @@
         <v>186173</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>134</v>
@@ -1865,13 +1847,13 @@
         <v>138664</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>315</v>
@@ -1880,13 +1862,13 @@
         <v>324837</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,13 +1936,13 @@
         <v>2071131</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>2332</v>
@@ -1969,13 +1951,13 @@
         <v>2401571</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>4362</v>
@@ -1984,13 +1966,13 @@
         <v>4472702</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,16 +1984,16 @@
         <v>1183</v>
       </c>
       <c r="D14" s="7">
-        <v>1204579</v>
+        <v>1204578</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>964</v>
@@ -2020,13 +2002,13 @@
         <v>976567</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>2147</v>
@@ -2035,13 +2017,13 @@
         <v>2181145</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,7 +2035,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275710</v>
+        <v>3275709</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2097,7 +2079,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2116,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC83BAF-B0C9-469E-B631-F1A3DB82A437}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DEF7CC-A4F6-44C9-BD61-FD11CA47DFE4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2133,7 +2115,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2240,13 +2222,13 @@
         <v>708260</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>1007</v>
@@ -2255,13 +2237,13 @@
         <v>1078766</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>1662</v>
@@ -2270,13 +2252,13 @@
         <v>1787026</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,13 +2273,13 @@
         <v>262250</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>240</v>
@@ -2306,13 +2288,13 @@
         <v>259030</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>489</v>
@@ -2321,13 +2303,13 @@
         <v>521280</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2377,13 @@
         <v>1358817</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>1257</v>
@@ -2410,13 +2392,13 @@
         <v>1352919</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>2533</v>
@@ -2425,13 +2407,13 @@
         <v>2711736</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2428,13 @@
         <v>603096</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>372</v>
@@ -2461,28 +2443,28 @@
         <v>396987</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="M8" s="7">
         <v>950</v>
       </c>
       <c r="N8" s="7">
-        <v>1000082</v>
+        <v>1000083</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,7 +2506,7 @@
         <v>3483</v>
       </c>
       <c r="N9" s="7">
-        <v>3711818</v>
+        <v>3711819</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2538,7 +2520,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2550,13 +2532,13 @@
         <v>362101</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>347</v>
@@ -2565,13 +2547,13 @@
         <v>388218</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>674</v>
@@ -2580,13 +2562,13 @@
         <v>750319</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2583,13 @@
         <v>118051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>64</v>
@@ -2616,13 +2598,13 @@
         <v>68478</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>174</v>
@@ -2631,13 +2613,13 @@
         <v>186529</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2687,13 @@
         <v>2429178</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>2611</v>
@@ -2720,28 +2702,28 @@
         <v>2819903</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>4869</v>
       </c>
       <c r="N13" s="7">
-        <v>5249082</v>
+        <v>5249081</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2738,13 @@
         <v>983396</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H14" s="7">
         <v>676</v>
@@ -2771,13 +2753,13 @@
         <v>724495</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M14" s="7">
         <v>1613</v>
@@ -2786,13 +2768,13 @@
         <v>1707891</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,7 +2816,7 @@
         <v>6482</v>
       </c>
       <c r="N15" s="7">
-        <v>6956973</v>
+        <v>6956972</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2848,7 +2830,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2867,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0835F3DB-E732-4604-A091-4C08112F8C08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64115E02-020E-4BB4-94F2-5E7509604D72}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,7 +2866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2991,13 +2973,13 @@
         <v>575138</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>705</v>
@@ -3006,28 +2988,28 @@
         <v>785900</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>1288</v>
       </c>
       <c r="N4" s="7">
-        <v>1361038</v>
+        <v>1361039</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3024,13 @@
         <v>177250</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -3057,13 +3039,13 @@
         <v>204291</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>360</v>
@@ -3072,13 +3054,13 @@
         <v>381541</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,7 +3102,7 @@
         <v>1648</v>
       </c>
       <c r="N6" s="7">
-        <v>1742579</v>
+        <v>1742580</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3146,13 +3128,13 @@
         <v>1428243</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H7" s="7">
         <v>1415</v>
@@ -3161,13 +3143,13 @@
         <v>1485319</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
         <v>2763</v>
@@ -3176,13 +3158,13 @@
         <v>2913563</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3179,13 @@
         <v>634932</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
         <v>483</v>
@@ -3212,13 +3194,13 @@
         <v>492656</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>1076</v>
@@ -3227,13 +3209,13 @@
         <v>1127587</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,7 +3271,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3301,13 +3283,13 @@
         <v>426700</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>426</v>
@@ -3316,13 +3298,13 @@
         <v>448114</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>818</v>
@@ -3331,13 +3313,13 @@
         <v>874814</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3334,13 @@
         <v>118176</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>98</v>
@@ -3367,13 +3349,13 @@
         <v>99062</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>205</v>
@@ -3382,13 +3364,13 @@
         <v>217238</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3438,13 @@
         <v>2430082</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>2546</v>
@@ -3471,13 +3453,13 @@
         <v>2719333</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>4869</v>
@@ -3486,13 +3468,13 @@
         <v>5149416</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3489,13 @@
         <v>930357</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>764</v>
@@ -3522,13 +3504,13 @@
         <v>796009</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>1641</v>
@@ -3537,13 +3519,13 @@
         <v>1726366</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,7 +3581,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3618,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA12EC98-5FB1-4E81-BAE1-654F975D7C84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5C2C8B-7C50-4361-A029-90D0B401D98E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,7 +3617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,13 +3724,13 @@
         <v>502668</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>1352</v>
@@ -3757,13 +3739,13 @@
         <v>789205</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>2001</v>
@@ -3772,13 +3754,13 @@
         <v>1291874</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3775,13 @@
         <v>38182</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>71</v>
@@ -3808,13 +3790,13 @@
         <v>44537</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>112</v>
@@ -3823,13 +3805,13 @@
         <v>82718</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3879,13 @@
         <v>2025275</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>2817</v>
@@ -3912,13 +3894,13 @@
         <v>2157013</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>4698</v>
@@ -3927,13 +3909,13 @@
         <v>4182287</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3930,13 @@
         <v>133997</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>101</v>
@@ -3963,13 +3945,13 @@
         <v>90224</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>209</v>
@@ -3978,13 +3960,13 @@
         <v>224222</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,7 +4022,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4052,13 +4034,13 @@
         <v>652634</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>979</v>
@@ -4067,13 +4049,13 @@
         <v>689465</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>1638</v>
@@ -4082,13 +4064,13 @@
         <v>1342100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4085,13 @@
         <v>20405</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -4118,13 +4100,13 @@
         <v>24421</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -4133,13 +4115,13 @@
         <v>44826</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4189,13 @@
         <v>3180575</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>5148</v>
@@ -4222,13 +4204,13 @@
         <v>3635684</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>8337</v>
@@ -4237,13 +4219,13 @@
         <v>6816260</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4240,13 @@
         <v>192585</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>197</v>
@@ -4273,13 +4255,13 @@
         <v>159182</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>368</v>
@@ -4288,13 +4270,13 @@
         <v>351766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,7 +4332,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B08_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B08_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE2E606D-E62D-4E3F-B223-BDD5F62B32E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CF0886B-81DA-4A5E-8224-7960CF3164F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99B5AE32-0430-4ABB-A53A-A15493A403C9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EE815A0A-CE82-454E-9532-FBE861E2A876}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>64,19%</t>
   </si>
   <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
   </si>
   <si>
     <t>72,87%</t>
   </si>
   <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
   </si>
   <si>
     <t>69,06%</t>
   </si>
   <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>35,81%</t>
   </si>
   <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
   </si>
   <si>
     <t>27,13%</t>
   </si>
   <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
   </si>
   <si>
     <t>30,94%</t>
   </si>
   <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,370 +140,382 @@
     <t>61,66%</t>
   </si>
   <si>
-    <t>59,39%</t>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
   </si>
   <si>
     <t>63,93%</t>
   </si>
   <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
+    <t>67,31%</t>
   </si>
   <si>
     <t>38,34%</t>
   </si>
   <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
     <t>36,07%</t>
   </si>
   <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
     <t>Universitarios</t>
   </si>
   <si>
     <t>66,24%</t>
   </si>
   <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
   </si>
   <si>
     <t>70,89%</t>
   </si>
   <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
   </si>
   <si>
     <t>68,4%</t>
   </si>
   <si>
-    <t>65,46%</t>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
   </si>
   <si>
     <t>71,48%</t>
   </si>
   <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
   </si>
   <si>
     <t>28,52%</t>
   </si>
   <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
   </si>
   <si>
     <t>75,45%</t>
   </si>
   <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
   </si>
   <si>
     <t>24,55%</t>
   </si>
   <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
   </si>
   <si>
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
@@ -512,79 +524,76 @@
     <t>76,44%</t>
   </si>
   <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
+    <t>73,4%</t>
   </si>
   <si>
     <t>79,37%</t>
   </si>
   <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
   </si>
   <si>
     <t>78,1%</t>
   </si>
   <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
   </si>
   <si>
     <t>23,56%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
+    <t>26,6%</t>
   </si>
   <si>
     <t>20,63%</t>
   </si>
   <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
   </si>
   <si>
     <t>21,9%</t>
   </si>
   <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
   </si>
   <si>
     <t>69,23%</t>
   </si>
   <si>
+    <t>67,02%</t>
+  </si>
+  <si>
     <t>71,2%</t>
   </si>
   <si>
     <t>75,09%</t>
   </si>
   <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>72,1%</t>
   </si>
   <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
   </si>
   <si>
     <t>30,77%</t>
@@ -593,58 +602,58 @@
     <t>28,8%</t>
   </si>
   <si>
+    <t>32,98%</t>
+  </si>
+  <si>
     <t>24,91%</t>
   </si>
   <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
   </si>
   <si>
     <t>27,9%</t>
   </si>
   <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
   </si>
   <si>
     <t>78,31%</t>
   </si>
   <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
   </si>
   <si>
     <t>81,9%</t>
   </si>
   <si>
-    <t>78,52%</t>
-  </si>
-  <si>
     <t>84,95%</t>
   </si>
   <si>
     <t>80,11%</t>
   </si>
   <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
   </si>
   <si>
     <t>18,1%</t>
@@ -653,70 +662,67 @@
     <t>15,05%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
     <t>19,89%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
   </si>
   <si>
     <t>72,31%</t>
   </si>
   <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
   </si>
   <si>
     <t>77,36%</t>
   </si>
   <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
   </si>
   <si>
     <t>74,89%</t>
   </si>
   <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
   </si>
   <si>
     <t>27,69%</t>
   </si>
   <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
   </si>
   <si>
     <t>22,64%</t>
   </si>
   <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
   </si>
   <si>
     <t>25,11%</t>
   </si>
   <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
   </si>
   <si>
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2023 (Tasa respuesta: 99,82%)</t>
@@ -725,16 +731,16 @@
     <t>92,94%</t>
   </si>
   <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>94,66%</t>
   </si>
   <si>
-    <t>93,33%</t>
+    <t>93,4%</t>
   </si>
   <si>
     <t>95,84%</t>
@@ -743,19 +749,19 @@
     <t>93,98%</t>
   </si>
   <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
   </si>
   <si>
     <t>5,34%</t>
@@ -764,40 +770,40 @@
     <t>4,16%</t>
   </si>
   <si>
-    <t>6,67%</t>
+    <t>6,6%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
   </si>
   <si>
     <t>93,79%</t>
   </si>
   <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>94,91%</t>
   </si>
   <si>
-    <t>93,95%</t>
+    <t>93,93%</t>
   </si>
   <si>
     <t>95,63%</t>
@@ -806,19 +812,19 @@
     <t>6,21%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
   </si>
   <si>
     <t>5,09%</t>
@@ -827,25 +833,25 @@
     <t>4,37%</t>
   </si>
   <si>
-    <t>6,05%</t>
+    <t>6,07%</t>
   </si>
   <si>
     <t>96,97%</t>
   </si>
   <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>96,58%</t>
   </si>
   <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>96,77%</t>
@@ -854,31 +860,31 @@
     <t>95,56%</t>
   </si>
   <si>
-    <t>97,71%</t>
+    <t>97,64%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>2,29%</t>
+    <t>2,36%</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -887,55 +893,55 @@
     <t>94,29%</t>
   </si>
   <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>95,81%</t>
   </si>
   <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
   </si>
   <si>
     <t>95,09%</t>
   </si>
   <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
   </si>
   <si>
     <t>4,19%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2702E08A-B851-409A-9464-E97F16C0F730}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D5C3E9-AD86-44DF-99E8-95A06A80BED5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1623,7 +1629,7 @@
         <v>1010</v>
       </c>
       <c r="D7" s="7">
-        <v>1044188</v>
+        <v>1044187</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1644,10 +1650,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>2082</v>
@@ -1656,13 +1662,13 @@
         <v>2149688</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1683,13 @@
         <v>649225</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>481</v>
@@ -1692,13 +1698,13 @@
         <v>481113</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1120</v>
@@ -1707,13 +1713,13 @@
         <v>1130338</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,7 +1731,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1769,7 +1775,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1781,13 +1787,13 @@
         <v>365235</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>318</v>
@@ -1796,13 +1802,13 @@
         <v>337748</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>664</v>
@@ -1811,13 +1817,13 @@
         <v>702983</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1838,13 @@
         <v>186173</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>134</v>
@@ -1847,13 +1853,13 @@
         <v>138664</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>315</v>
@@ -1862,13 +1868,13 @@
         <v>324837</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1942,13 @@
         <v>2071131</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>2332</v>
@@ -1951,13 +1957,13 @@
         <v>2401571</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>4362</v>
@@ -1966,13 +1972,13 @@
         <v>4472702</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1993,13 @@
         <v>1204578</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>964</v>
@@ -2002,13 +2008,13 @@
         <v>976567</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>2147</v>
@@ -2017,13 +2023,13 @@
         <v>2181145</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,7 +2085,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2098,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DEF7CC-A4F6-44C9-BD61-FD11CA47DFE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B522C4-EDCD-4807-AC10-EBCE8D60AA1B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2115,7 +2121,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2222,13 +2228,13 @@
         <v>708260</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>1007</v>
@@ -2237,13 +2243,13 @@
         <v>1078766</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>1662</v>
@@ -2252,13 +2258,13 @@
         <v>1787026</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2279,13 @@
         <v>262250</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>240</v>
@@ -2288,13 +2294,13 @@
         <v>259030</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>489</v>
@@ -2303,13 +2309,13 @@
         <v>521280</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,10 +2401,10 @@
         <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>2533</v>
@@ -2407,13 +2413,13 @@
         <v>2711736</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2434,13 @@
         <v>603096</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>372</v>
@@ -2443,28 +2449,28 @@
         <v>396987</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>950</v>
       </c>
       <c r="N8" s="7">
-        <v>1000083</v>
+        <v>1000082</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,7 +2512,7 @@
         <v>3483</v>
       </c>
       <c r="N9" s="7">
-        <v>3711819</v>
+        <v>3711818</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2520,7 +2526,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2532,13 +2538,13 @@
         <v>362101</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>347</v>
@@ -2547,13 +2553,13 @@
         <v>388218</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>674</v>
@@ -2562,13 +2568,13 @@
         <v>750319</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2589,13 @@
         <v>118051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>64</v>
@@ -2598,13 +2604,13 @@
         <v>68478</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>174</v>
@@ -2613,13 +2619,13 @@
         <v>186529</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2693,13 @@
         <v>2429178</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>2611</v>
@@ -2702,13 +2708,13 @@
         <v>2819903</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>4869</v>
@@ -2717,13 +2723,13 @@
         <v>5249081</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2744,13 @@
         <v>983396</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>676</v>
@@ -2753,13 +2759,13 @@
         <v>724495</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>1613</v>
@@ -2768,13 +2774,13 @@
         <v>1707891</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,7 +2836,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2849,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64115E02-020E-4BB4-94F2-5E7509604D72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24C55BB-367D-4761-8893-43C990F72715}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2973,13 +2979,13 @@
         <v>575138</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>705</v>
@@ -2988,28 +2994,28 @@
         <v>785900</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>1288</v>
       </c>
       <c r="N4" s="7">
-        <v>1361039</v>
+        <v>1361038</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3030,13 @@
         <v>177250</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -3039,13 +3045,13 @@
         <v>204291</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>360</v>
@@ -3054,13 +3060,13 @@
         <v>381541</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,7 +3108,7 @@
         <v>1648</v>
       </c>
       <c r="N6" s="7">
-        <v>1742580</v>
+        <v>1742579</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3128,13 +3134,13 @@
         <v>1428243</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>1415</v>
@@ -3143,13 +3149,13 @@
         <v>1485319</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>2763</v>
@@ -3158,13 +3164,13 @@
         <v>2913563</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3185,13 @@
         <v>634932</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>483</v>
@@ -3194,13 +3200,13 @@
         <v>492656</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>1076</v>
@@ -3209,13 +3215,13 @@
         <v>1127587</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,7 +3277,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3283,13 +3289,13 @@
         <v>426700</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>426</v>
@@ -3298,13 +3304,13 @@
         <v>448114</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>818</v>
@@ -3313,13 +3319,13 @@
         <v>874814</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3340,13 @@
         <v>118176</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>98</v>
@@ -3349,13 +3355,13 @@
         <v>99062</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="M11" s="7">
         <v>205</v>
@@ -3364,13 +3370,13 @@
         <v>217238</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3444,13 @@
         <v>2430082</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>2546</v>
@@ -3453,13 +3459,13 @@
         <v>2719333</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>4869</v>
@@ -3468,13 +3474,13 @@
         <v>5149416</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3495,13 @@
         <v>930357</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>764</v>
@@ -3504,13 +3510,13 @@
         <v>796009</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>1641</v>
@@ -3519,13 +3525,13 @@
         <v>1726366</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,7 +3587,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3600,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5C2C8B-7C50-4361-A029-90D0B401D98E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79820F11-C5B8-4055-946F-7B1DF2364EC1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3730,13 @@
         <v>502668</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>1352</v>
@@ -3739,13 +3745,13 @@
         <v>789205</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>2001</v>
@@ -3754,13 +3760,13 @@
         <v>1291874</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3781,13 @@
         <v>38182</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>71</v>
@@ -3790,13 +3796,13 @@
         <v>44537</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>112</v>
@@ -3805,13 +3811,13 @@
         <v>82718</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3885,13 @@
         <v>2025275</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>2817</v>
@@ -3894,28 +3900,28 @@
         <v>2157013</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>4698</v>
       </c>
       <c r="N7" s="7">
-        <v>4182287</v>
+        <v>4182286</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3936,13 @@
         <v>133997</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>101</v>
@@ -3945,13 +3951,13 @@
         <v>90224</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>209</v>
@@ -3960,13 +3966,13 @@
         <v>224222</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,7 +4014,7 @@
         <v>4907</v>
       </c>
       <c r="N9" s="7">
-        <v>4406509</v>
+        <v>4406508</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4022,7 +4028,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4034,13 +4040,13 @@
         <v>652634</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>979</v>
@@ -4049,13 +4055,13 @@
         <v>689465</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>1638</v>
@@ -4064,13 +4070,13 @@
         <v>1342100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4091,13 @@
         <v>20405</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -4100,13 +4106,13 @@
         <v>24421</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -4115,13 +4121,13 @@
         <v>44826</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4195,13 @@
         <v>3180575</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>5148</v>
@@ -4204,13 +4210,13 @@
         <v>3635684</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>8337</v>
@@ -4219,13 +4225,13 @@
         <v>6816260</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4246,13 @@
         <v>192585</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>197</v>
@@ -4255,13 +4261,13 @@
         <v>159182</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>368</v>
@@ -4270,13 +4276,13 @@
         <v>351766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,7 +4338,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B08_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B08_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CF0886B-81DA-4A5E-8224-7960CF3164F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97820CC2-1C69-4FF3-9512-4A545ABE7BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EE815A0A-CE82-454E-9532-FBE861E2A876}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A6FB4EBB-B079-4DD3-85E6-AF11AE17FF39}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -728,217 +728,211 @@
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>95,2%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>4,02%</t>
   </si>
   <si>
     <t>5,49%</t>
@@ -1353,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D5C3E9-AD86-44DF-99E8-95A06A80BED5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D42C2F-0074-4FC7-B715-243840E55616}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1504,7 +1498,7 @@
         <v>1616</v>
       </c>
       <c r="N4" s="7">
-        <v>1620032</v>
+        <v>1620031</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1606,7 +1600,7 @@
         <v>2328</v>
       </c>
       <c r="N6" s="7">
-        <v>2346002</v>
+        <v>2346001</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1629,7 +1623,7 @@
         <v>1010</v>
       </c>
       <c r="D7" s="7">
-        <v>1044187</v>
+        <v>1044188</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1731,7 +1725,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1954,7 +1948,7 @@
         <v>2332</v>
       </c>
       <c r="I13" s="7">
-        <v>2401571</v>
+        <v>2401570</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -2056,7 +2050,7 @@
         <v>3296</v>
       </c>
       <c r="I15" s="7">
-        <v>3378138</v>
+        <v>3378137</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2104,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B522C4-EDCD-4807-AC10-EBCE8D60AA1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C17D89-532F-4679-9911-FF901BFC732D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2240,7 +2234,7 @@
         <v>1007</v>
       </c>
       <c r="I4" s="7">
-        <v>1078766</v>
+        <v>1078767</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2342,7 +2336,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2461,7 +2455,7 @@
         <v>950</v>
       </c>
       <c r="N8" s="7">
-        <v>1000082</v>
+        <v>1000083</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>120</v>
@@ -2512,7 +2506,7 @@
         <v>3483</v>
       </c>
       <c r="N9" s="7">
-        <v>3711818</v>
+        <v>3711819</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2720,7 +2714,7 @@
         <v>4869</v>
       </c>
       <c r="N13" s="7">
-        <v>5249081</v>
+        <v>5249082</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>147</v>
@@ -2822,7 +2816,7 @@
         <v>6482</v>
       </c>
       <c r="N15" s="7">
-        <v>6956972</v>
+        <v>6956973</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2855,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24C55BB-367D-4761-8893-43C990F72715}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A74737-C3D8-4993-AF9A-1B5BF639DCEF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3456,7 +3450,7 @@
         <v>2546</v>
       </c>
       <c r="I13" s="7">
-        <v>2719333</v>
+        <v>2719334</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>213</v>
@@ -3558,7 +3552,7 @@
         <v>3310</v>
       </c>
       <c r="I15" s="7">
-        <v>3515342</v>
+        <v>3515343</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3606,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79820F11-C5B8-4055-946F-7B1DF2364EC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B088AF-68D4-448A-BFE9-2F8511AC71AB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3727,7 +3721,7 @@
         <v>649</v>
       </c>
       <c r="D4" s="7">
-        <v>502668</v>
+        <v>477259</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>229</v>
@@ -3742,7 +3736,7 @@
         <v>1352</v>
       </c>
       <c r="I4" s="7">
-        <v>789205</v>
+        <v>712521</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>232</v>
@@ -3757,7 +3751,7 @@
         <v>2001</v>
       </c>
       <c r="N4" s="7">
-        <v>1291874</v>
+        <v>1189780</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>235</v>
@@ -3778,7 +3772,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="7">
-        <v>38182</v>
+        <v>36938</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>238</v>
@@ -3793,7 +3787,7 @@
         <v>71</v>
       </c>
       <c r="I5" s="7">
-        <v>44537</v>
+        <v>40954</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>241</v>
@@ -3808,7 +3802,7 @@
         <v>112</v>
       </c>
       <c r="N5" s="7">
-        <v>82718</v>
+        <v>77892</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>244</v>
@@ -3829,7 +3823,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540850</v>
+        <v>514197</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3844,7 +3838,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>833742</v>
+        <v>753475</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3859,7 +3853,7 @@
         <v>2113</v>
       </c>
       <c r="N6" s="7">
-        <v>1374592</v>
+        <v>1267672</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3882,7 +3876,7 @@
         <v>1881</v>
       </c>
       <c r="D7" s="7">
-        <v>2025275</v>
+        <v>2152873</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>247</v>
@@ -3897,31 +3891,31 @@
         <v>2817</v>
       </c>
       <c r="I7" s="7">
-        <v>2157013</v>
+        <v>2150753</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>4698</v>
       </c>
       <c r="N7" s="7">
-        <v>4182286</v>
+        <v>4303625</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,46 +3927,46 @@
         <v>108</v>
       </c>
       <c r="D8" s="7">
-        <v>133997</v>
+        <v>134909</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>101</v>
       </c>
       <c r="I8" s="7">
-        <v>90224</v>
+        <v>85205</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="M8" s="7">
         <v>209</v>
       </c>
       <c r="N8" s="7">
-        <v>224222</v>
+        <v>220114</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,7 +3978,7 @@
         <v>1989</v>
       </c>
       <c r="D9" s="7">
-        <v>2159272</v>
+        <v>2287782</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3999,7 +3993,7 @@
         <v>2918</v>
       </c>
       <c r="I9" s="7">
-        <v>2247237</v>
+        <v>2235958</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4014,7 +4008,7 @@
         <v>4907</v>
       </c>
       <c r="N9" s="7">
-        <v>4406508</v>
+        <v>4523739</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4037,46 +4031,46 @@
         <v>659</v>
       </c>
       <c r="D10" s="7">
-        <v>652634</v>
+        <v>626623</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>979</v>
       </c>
       <c r="I10" s="7">
-        <v>689465</v>
+        <v>637879</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>1638</v>
       </c>
       <c r="N10" s="7">
-        <v>1342100</v>
+        <v>1264502</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,46 +4082,46 @@
         <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>20405</v>
+        <v>20000</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
       </c>
       <c r="I11" s="7">
-        <v>24421</v>
+        <v>22584</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
       </c>
       <c r="N11" s="7">
-        <v>44826</v>
+        <v>42584</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,7 +4133,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4154,7 +4148,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4169,7 +4163,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4192,46 +4186,46 @@
         <v>3189</v>
       </c>
       <c r="D13" s="7">
-        <v>3180575</v>
+        <v>3256754</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>5148</v>
       </c>
       <c r="I13" s="7">
-        <v>3635684</v>
+        <v>3501153</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>8337</v>
       </c>
       <c r="N13" s="7">
-        <v>6816260</v>
+        <v>6757907</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,46 +4237,46 @@
         <v>171</v>
       </c>
       <c r="D14" s="7">
-        <v>192585</v>
+        <v>191848</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>197</v>
       </c>
       <c r="I14" s="7">
-        <v>159182</v>
+        <v>148743</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>368</v>
       </c>
       <c r="N14" s="7">
-        <v>351766</v>
+        <v>340591</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,7 +4288,7 @@
         <v>3360</v>
       </c>
       <c r="D15" s="7">
-        <v>3373160</v>
+        <v>3448602</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4309,7 +4303,7 @@
         <v>5345</v>
       </c>
       <c r="I15" s="7">
-        <v>3794866</v>
+        <v>3649896</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4324,7 +4318,7 @@
         <v>8705</v>
       </c>
       <c r="N15" s="7">
-        <v>7168026</v>
+        <v>7098498</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
